--- a/matrixCompany1.xlsx
+++ b/matrixCompany1.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnHoliday" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Roles" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Names and Email" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SingleApproverClients" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="BPOEmail" vbProcedure="false">'Names and Email'!$A$2:$B$31</definedName>
@@ -32,297 +33,426 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="97">
-  <si>
-    <t>Regular Approver</t>
-  </si>
-  <si>
-    <t>Fill-In Approver</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Approver Eight</t>
-  </si>
-  <si>
-    <t>Approver FortyOne</t>
-  </si>
-  <si>
-    <t>Role Name</t>
-  </si>
-  <si>
-    <t>Role Description</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Business Group</t>
-  </si>
-  <si>
-    <t>Role Owner - General</t>
-  </si>
-  <si>
-    <t>Role Owner - North America</t>
-  </si>
-  <si>
-    <t>Role Owner - South America</t>
-  </si>
-  <si>
-    <t>Role Owner - Europe</t>
-  </si>
-  <si>
-    <t>Role Owner - Austrailia</t>
-  </si>
-  <si>
-    <t>Role Owner - Asia</t>
-  </si>
-  <si>
-    <t>Role Owner - Micronesia</t>
-  </si>
-  <si>
-    <t>AA:DISPLAY-AUSTRALIA</t>
-  </si>
-  <si>
-    <t>Role Description 1 -- Company 1</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Approver One</t>
-  </si>
-  <si>
-    <t>EE:ABC_DISPLAY_PRODUCT</t>
-  </si>
-  <si>
-    <t>Role Description 2 -- Company 1</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>EH&amp;S</t>
-  </si>
-  <si>
-    <t>Approver Two</t>
-  </si>
-  <si>
-    <t>MM:BACKMOUNTAIN_ALL</t>
-  </si>
-  <si>
-    <t>Role Description 7 -- Company 1</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Approver Seven</t>
-  </si>
-  <si>
-    <t>MMM:AA_BB-FIELD</t>
-  </si>
-  <si>
-    <t>Role Description 3 - Company 1 – Regional</t>
-  </si>
-  <si>
-    <t>Regional</t>
-  </si>
-  <si>
-    <t>Approver Three</t>
-  </si>
-  <si>
-    <t>Approver Four</t>
-  </si>
-  <si>
-    <t>Approver Five</t>
-  </si>
-  <si>
-    <t>Approver Six</t>
-  </si>
-  <si>
-    <t>MMM:AA_NORTH</t>
-  </si>
-  <si>
-    <t>Role Description 4 -- Company 1</t>
-  </si>
-  <si>
-    <t>MMM:AA_NORTH_DISPLAY</t>
-  </si>
-  <si>
-    <t>Role Description 5 -- Company 1</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>MMM:CHANGE_DISPLAY_FIRST</t>
-  </si>
-  <si>
-    <t>Role Description 6 - Company 1 – Regional</t>
-  </si>
-  <si>
-    <t>PQ:AA12345</t>
-  </si>
-  <si>
-    <t>Role Description 11 - Company 1</t>
-  </si>
-  <si>
-    <t>PQ:ANALYSIS</t>
-  </si>
-  <si>
-    <t>Role Description 8 -- Company 1 – DNA</t>
-  </si>
-  <si>
-    <t>Do Not Assign</t>
-  </si>
-  <si>
-    <t>PQ:ANALYSIS-AUSTRALIA</t>
-  </si>
-  <si>
-    <t>Role Description 9 -- Company 1</t>
-  </si>
-  <si>
-    <t>Approver Nine</t>
-  </si>
-  <si>
-    <t>PQ:CHANGE-DOCUMENTS-ARGENTINA</t>
-  </si>
-  <si>
-    <t>Role Description 10 - Company 1</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Approver Ten</t>
-  </si>
-  <si>
-    <t>PQR:12345</t>
-  </si>
-  <si>
-    <t>Role Description 12 - Company 1 – Approver Three</t>
-  </si>
-  <si>
-    <t>S_AAA_COMMON_REGIONAL</t>
-  </si>
-  <si>
-    <t>Role Description 13 - Company 1 – Regional</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>STU_HOME_STUDENT</t>
-  </si>
-  <si>
-    <t>Role Description 15 - Company 1 – DNA</t>
-  </si>
-  <si>
-    <t>T_12345678_AAA:OFFICE</t>
-  </si>
-  <si>
-    <t>Role Description 16 - Company 1 – Approver One</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>YXY:AA3-AA6-CUSTOMER-STUFF</t>
-  </si>
-  <si>
-    <t>Role Description 19 - Company 1 – Approver Five</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>YYY:R&amp;D-TECH-TREE-INFO-NEPOLEON</t>
-  </si>
-  <si>
-    <t>Role Description 18 - Company 1 – Approver Three</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>YZZ:CHECK-YOUR-CODE</t>
-  </si>
-  <si>
-    <t>Role Description 17 - Company 1 – Approver Two</t>
-  </si>
-  <si>
-    <t>Z:THE-911-TESTER</t>
-  </si>
-  <si>
-    <t>Role Description 20 - Company 1 – Approver One</t>
-  </si>
-  <si>
-    <t>Z_AAA_BB_DISPLAY_REGIONAL</t>
-  </si>
-  <si>
-    <t>Role Description 14 - Company 1 – Regional</t>
-  </si>
-  <si>
-    <t>Audit</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>approver1@company1.com</t>
-  </si>
-  <si>
-    <t>approver2@company1.com</t>
-  </si>
-  <si>
-    <t>approver3@company1.com</t>
-  </si>
-  <si>
-    <t>approver4@company1.com</t>
-  </si>
-  <si>
-    <t>approver5@company1.com</t>
-  </si>
-  <si>
-    <t>approver6@company1.com</t>
-  </si>
-  <si>
-    <t>approver7@company1.com</t>
-  </si>
-  <si>
-    <t>approver8@company1.com</t>
-  </si>
-  <si>
-    <t>approver9@company1.com</t>
-  </si>
-  <si>
-    <t>approver10@company1.com</t>
-  </si>
-  <si>
-    <t>approver41@company1.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
+  <si>
+    <t xml:space="preserve">Regular Approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill-In Approver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Eight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver FortyOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - South America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Austrailia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Owner - Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA:DISPLAY-AUSTRALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 1 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE:ABC_DISPLAY_PRODUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 2 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EH&amp;S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM:BACKMOUNTAIN_ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 7 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMM:AA_BB-FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 3 - Company 1 – Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMM:AA_NORTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 4 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMM:AA_NORTH_DISPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 5 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMM:CHANGE_DISPLAY_FIRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 6 - Company 1 – Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ:AA12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 11 - Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ:ANALYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 8 -- Company 1 – DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Not Assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ:ANALYSIS-AUSTRALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 9 -- Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Nine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ:CHANGE-DOCUMENTS-ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 10 - Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQR:12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 12 - Company 1 – Approver Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_AAA_COMMON_REGIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 13 - Company 1 – Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STU_HOME_STUDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 15 - Company 1 – DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_12345678_AAA:OFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 16 - Company 1 – Approver One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YXY:AA3-AA6-CUSTOMER-STUFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 19 - Company 1 – Approver Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYY:R&amp;D-TECH-TREE-INFO-NEPOLEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 18 - Company 1 – Approver Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YZZ:CHECK-YOUR-CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 17 - Company 1 – Approver Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z:THE-911-TESTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 20 - Company 1 – Approver One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z_AAA_BB_DISPLAY_REGIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Description 14 - Company 1 – Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver1@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver2@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver3@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver4@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver5@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver6@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver7@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver8@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver9@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver10@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approver41@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection1@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection2@company2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver Single1Section3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverSingleSection3@company3.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverF@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverW@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approver X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approverX@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descriptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB1 123 – Section 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Business 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 1 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB1 123 – Section 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Business 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB1 123 – Section 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Name 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 Business 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 3 Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC1 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 F Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Job Title Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC1 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 W Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste Roles Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XC1 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 1 X Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 6</t>
   </si>
 </sst>
 </file>
@@ -330,7 +460,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
@@ -371,7 +501,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +511,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
@@ -432,7 +568,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,6 +617,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -493,7 +633,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -510,7 +650,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -558,7 +698,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -566,16 +706,16 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,9 +728,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -623,28 +762,26 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="42.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
@@ -1309,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -1344,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -1396,22 +1533,22 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
@@ -1419,7 +1556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1459,7 +1596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1475,7 +1612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -1491,28 +1628,85 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="approverSingleSection1@company1.com"/>
+    <hyperlink ref="B15" r:id="rId2" display="approverSingleSection2@company2.com"/>
+    <hyperlink ref="B16" r:id="rId3" display="approverSingleSection3@company3.com"/>
+    <hyperlink ref="B17" r:id="rId4" display="approverF@company1.com"/>
+    <hyperlink ref="B18" r:id="rId5" display="approverW@company1.com"/>
+    <hyperlink ref="B19" r:id="rId6" display="approverX@company1.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1521,4 +1715,145 @@
     <oddFooter>&amp;C&amp;"arial,Bold"MOMENTIVE PUBLIC [WHITE]</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8582995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matrixCompany1.xlsx
+++ b/matrixCompany1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="976" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OnHoliday" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="147">
   <si>
     <t xml:space="preserve">Regular Approver</t>
   </si>
@@ -362,12 +362,48 @@
     <t xml:space="preserve">approverX@company1.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Single Approver 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover1@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover2@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover3@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover4@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover5@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Approver 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleApprover6@company1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t xml:space="preserve">Descriptor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Client Name</t>
   </si>
   <si>
@@ -377,94 +413,78 @@
     <t xml:space="preserve">Role Text</t>
   </si>
   <si>
-    <t xml:space="preserve">CB1 123 – Section 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 1 Name 1</t>
+    <t xml:space="preserve">CB1 – Section1 – Company 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB1 001</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 Business 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 1 Roles</t>
   </si>
   <si>
-    <t xml:space="preserve">CB1 123 – Section 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 1 Name 2</t>
+    <t xml:space="preserve">CB1 – Section2 – Company 1</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 Business 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 2 Roles</t>
   </si>
   <si>
-    <t xml:space="preserve">CB1 123 – Section 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 1 Name 3</t>
+    <t xml:space="preserve">CB1 – Section3 – Company 1</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 Business 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Section 3 Roles</t>
   </si>
   <si>
+    <t xml:space="preserve">FC1</t>
+  </si>
+  <si>
     <t xml:space="preserve">FC1 300</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 F Testing</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paste Job Title Here</t>
   </si>
   <si>
+    <t xml:space="preserve">WC1</t>
+  </si>
+  <si>
     <t xml:space="preserve">WC1 100</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 W Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Approver 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paste Roles Here</t>
   </si>
   <si>
+    <t xml:space="preserve">XC1</t>
+  </si>
+  <si>
     <t xml:space="preserve">XC1 100</t>
   </si>
   <si>
     <t xml:space="preserve">Company 1 X Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Approver 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -490,12 +510,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -543,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,8 +581,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -605,15 +623,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,13 +632,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -708,9 +719,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -770,14 +781,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="40.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="43.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1533,180 +1544,219 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="0" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="approverSingleSection1@company1.com"/>
-    <hyperlink ref="B15" r:id="rId2" display="approverSingleSection2@company2.com"/>
-    <hyperlink ref="B16" r:id="rId3" display="approverSingleSection3@company3.com"/>
-    <hyperlink ref="B17" r:id="rId4" display="approverF@company1.com"/>
-    <hyperlink ref="B18" r:id="rId5" display="approverW@company1.com"/>
-    <hyperlink ref="B19" r:id="rId6" display="approverX@company1.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1724,127 +1774,137 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8582995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>113</v>
+      <c r="A1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
